--- a/loaded_influencer_data/bbnv.anna/bbnv.anna_video.xlsx
+++ b/loaded_influencer_data/bbnv.anna/bbnv.anna_video.xlsx
@@ -506,45 +506,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7237998890182675758</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>624000</v>
+        <v>626700</v>
       </c>
       <c r="C2" t="n">
-        <v>82600</v>
+        <v>82800</v>
       </c>
       <c r="D2" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9763</v>
+        <v>9804</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>일주일에 한 번 헤이스 마스크 적용 🤎 #skincare #skincareroutine #facemask #morningroutine</t>
+          <t>Applying hace mask once a week 🤎
+#skincare #skincareroutine #facemask #morningroutine</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.26794871794872</v>
+        <v>13.24254029041009</v>
       </c>
       <c r="I2" t="n">
-        <v>13.23717948717949</v>
+        <v>13.21206318812829</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03047710228179352</v>
       </c>
       <c r="L2" t="n">
-        <v>1.564583333333333</v>
+        <v>1.564384873145045</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +559,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/photo/7427642984918715690</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7349</v>
+        <v>7392</v>
       </c>
       <c r="C3" t="n">
         <v>217</v>
@@ -584,19 +585,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.061641039597224</v>
+        <v>3.043831168831169</v>
       </c>
       <c r="I3" t="n">
-        <v>2.952782691522656</v>
+        <v>2.935606060606061</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.108858348074568</v>
+        <v>0.1082251082251082</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2993604572050619</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -608,7 +609,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7341542525116632363</t>
         </is>
@@ -626,11 +627,12 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>매주 침구를 씻으라는 알림 🖤🧺 #laundryday #cleaning #amazonfinds #asmr #homedecor #hmhome</t>
+          <t>Reminder to wash your bedding every week 🖤🧺
+#laundryday #cleaning #amazonfinds #asmr #homedecor</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -646,7 +648,7 @@
         <v>0.007692307692307693</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5307692307692308</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -658,16 +660,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/photo/7340796563716853034</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9982</v>
+        <v>10000</v>
       </c>
       <c r="C5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -676,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -684,10 +686,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4.197555600080144</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.197555600080144</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -696,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7112803045481867</v>
+        <v>0.72</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -708,13 +710,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7340793177789566251</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7779</v>
+        <v>7819</v>
       </c>
       <c r="C6" t="n">
         <v>267</v>
@@ -730,23 +732,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>발렌타인 데이에 남편이 준 선물이었어요 ❤️ #vacation #travel #hawaii #halicopter #grwm #skincare #makeup</t>
+          <t>It was a gift from my husband on Valentine’s Day ❤️
+#vacation #travel #hawaii #halicopter #grwm #skincare</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.445172901401208</v>
+        <v>3.42754827983118</v>
       </c>
       <c r="I6" t="n">
-        <v>3.432317778634786</v>
+        <v>3.414758920578079</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01285512276642242</v>
+        <v>0.01278935925310142</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3085229463941381</v>
+        <v>0.3069446220744341</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -758,13 +761,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7340455856594537771</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6944</v>
+        <v>6973</v>
       </c>
       <c r="C7" t="n">
         <v>111</v>
@@ -780,23 +783,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>caption: 🎉🔍code: dkm2235 for 3-10 Free items on #temu and 🔗 in bi0 (App new users only with qualifying orders) #fashion#temumethod #temufree #temufinds #temuhaul #funstuff #trending #viral#fyp#viral#dress#winter#aesthetic#temu#haul#temufreegift#temugameday #temubiggame #temutoppicks #temufreegift</t>
+          <t>caption: 🎉🔍code: dkm2235 for 3-10 Free items on #temu and 🔗 in bi0 (App new users only with qualifying orders)</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.641705069124424</v>
+        <v>1.634877384196185</v>
       </c>
       <c r="I7" t="n">
-        <v>1.598502304147466</v>
+        <v>1.591854295138391</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04320276497695853</v>
+        <v>0.04302308905779435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3312211981566821</v>
+        <v>0.3298436827764233</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -808,107 +811,107 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/photo/7340428990995467566</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7095</v>
+        <v>7123</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>#morningroutine #bedding #pinterestaesthetic #hmpajama #steamer #homedecor #chanelbeauty #skincare</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.625298329355608</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.625298329355608</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5896391969675698</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-2-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bbnv.anna/video/7338943550853254442</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6418</v>
+      </c>
+      <c r="C9" t="n">
+        <v>214</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>23</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>캡션: 🎉🔍코드: dkm2235 3-10 bi0에서 무료 항목을 켜고 🔗 (적격 주문이 있는 앱 신규 사용자만 해당)#temu #fashion</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1.60676532769556</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.564482029598309</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.04228329809725159</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3241719520789288</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024-2-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bbnv.anna/video/7338943550853254442</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6391</v>
-      </c>
-      <c r="C9" t="n">
-        <v>187</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>42</v>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>#morningroutine #bedding #pinterestaesthetic #hmpajama #steamer #homedecor #chanelbeauty #skincare</t>
+          <t>We discovered the most stunning beach in Hawaii, and there wasn’t anyone else there—just us 🥥🌊🤎</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.925989672977625</v>
+        <v>3.381115612340293</v>
       </c>
       <c r="I9" t="n">
-        <v>2.925989672977625</v>
+        <v>3.334372078529137</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.04674353381115613</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6571741511500547</v>
+        <v>0.358367092552197</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2024-2-28</t>
+          <t>2024-2-24</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7330002223704837422</t>
         </is>
@@ -917,48 +920,49 @@
         <v>14600</v>
       </c>
       <c r="C10" t="n">
-        <v>213</v>
+        <v>681</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>우리는 하와이에서 가장 멋진 해변을 발견했고, 거기에는 아무도 없었습니다. 우리만🥥🌊🤎 해변에서 가장 좋아하는 색조 선크림 SPF 50👌🏼 비치 타월 모자 선글라스 가장 편안한 샌들🫶🏼 @ 우리는 무슨 수영복을 입었습니까? 오버사이즈 화이트 롱 셔츠 @Tesla 렌트카</t>
+          <t>The most comfortable grocery shopping outfit. I wear it every time and get a lot of compliments 🤎👌🏼🙉
+#ootd</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.47945205479452</v>
+        <v>4.698630136986302</v>
       </c>
       <c r="I10" t="n">
-        <v>1.458904109589041</v>
+        <v>4.664383561643835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02054794520547945</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1575342465753425</v>
+        <v>1.10958904109589</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-2-24</t>
+          <t>2024-1-31</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7327450018128907563</t>
         </is>
@@ -1008,7 +1012,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7326258887844203818</t>
         </is>
@@ -1058,7 +1062,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7324399176387792170</t>
         </is>
@@ -1108,7 +1112,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7317339507634818346</t>
         </is>
@@ -1158,7 +1162,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/photo/7317059588178611498</t>
         </is>
@@ -1208,7 +1212,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7315828541030026542</t>
         </is>
@@ -1258,7 +1262,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7312943237382049066</t>
         </is>
@@ -1308,7 +1312,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7309637078382300458</t>
         </is>
@@ -1358,7 +1362,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7308832570215501098</t>
         </is>
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7307680658543889706</t>
         </is>
@@ -1458,7 +1462,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7307115389740158251</t>
         </is>
@@ -1508,7 +1512,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7304416973650152746</t>
         </is>
@@ -1558,7 +1562,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7302523199940463918</t>
         </is>
@@ -1608,7 +1612,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7301041299308875054</t>
         </is>
@@ -1658,7 +1662,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7300650943039704363</t>
         </is>
@@ -1708,7 +1712,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7298428430159187246</t>
         </is>
@@ -1758,7 +1762,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7293228042070117674</t>
         </is>
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7292862863952186670</t>
         </is>
@@ -1858,7 +1862,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7281737834673868074</t>
         </is>
@@ -1908,7 +1912,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7280984528536194350</t>
         </is>
@@ -1958,7 +1962,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7274649595714702638</t>
         </is>
@@ -2008,7 +2012,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7272102590484368686</t>
         </is>
@@ -2058,7 +2062,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7270928941819415850</t>
         </is>
@@ -2108,7 +2112,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7269494267050020139</t>
         </is>
@@ -2158,7 +2162,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7267638369251872046</t>
         </is>
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7267305490659544363</t>
         </is>
@@ -2258,7 +2262,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7263895032107732266</t>
         </is>
@@ -2308,7 +2312,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7263528396372692267</t>
         </is>
@@ -2358,7 +2362,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7247547438104382763</t>
         </is>
@@ -2408,7 +2412,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7244261984018025774</t>
         </is>
@@ -2458,7 +2462,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7243116299935665450</t>
         </is>
@@ -2508,7 +2512,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7242745144997465387</t>
         </is>
@@ -2558,7 +2562,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7241699184909487406</t>
         </is>
@@ -2608,7 +2612,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7241581880670260523</t>
         </is>
@@ -2658,7 +2662,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7241311419327614250</t>
         </is>
@@ -2708,7 +2712,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7239757672206142762</t>
         </is>
@@ -2758,7 +2762,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7239444521937931566</t>
         </is>
@@ -2808,7 +2812,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/photo/7239097907524160811</t>
         </is>
@@ -2858,7 +2862,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7239065540914842926</t>
         </is>
@@ -2908,7 +2912,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bbnv.anna/video/7238245920930925867</t>
         </is>
